--- a/config_6.1/fish3d_gun_barrel_config.xlsx
+++ b/config_6.1/fish3d_gun_barrel_config.xlsx
@@ -112,7 +112,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="112">
   <si>
     <t>id|炮管id</t>
   </si>
@@ -231,22 +231,31 @@
     <t>1,3</t>
   </si>
   <si>
-    <t>GunPrefab17</t>
-  </si>
-  <si>
-    <t>FishNetPrefab_3d_10</t>
-  </si>
-  <si>
-    <t>BulletPrefab_3d_13</t>
+    <t>GunPrefab1</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_1</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_1</t>
   </si>
   <si>
     <t>4,6</t>
   </si>
   <si>
+    <t>BulletPrefab_3d_2</t>
+  </si>
+  <si>
     <t>7,9</t>
   </si>
   <si>
+    <t>BulletPrefab_3d_3</t>
+  </si>
+  <si>
     <t>10,10</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_4</t>
   </si>
   <si>
     <r>
@@ -382,6 +391,15 @@
     <t>BulletPrefab_3d_10</t>
   </si>
   <si>
+    <t>GunPrefab17</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_10</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_13</t>
+  </si>
+  <si>
     <t>GunPrefab18</t>
   </si>
   <si>
@@ -416,6 +434,15 @@
   </si>
   <si>
     <t>BulletPrefab_3d_17</t>
+  </si>
+  <si>
+    <t>GunPrefab22</t>
+  </si>
+  <si>
+    <t>FishNetPrefab_3d_15</t>
+  </si>
+  <si>
+    <t>BulletPrefab_3d_18</t>
   </si>
   <si>
     <t>id|</t>
@@ -523,12 +550,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -544,13 +571,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -558,7 +578,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -572,24 +592,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -603,29 +607,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -655,6 +637,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -666,13 +679,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -702,6 +708,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -717,7 +737,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -738,7 +758,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,7 +848,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -762,43 +896,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -816,73 +920,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,31 +932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -958,11 +972,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -971,7 +991,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -991,17 +1011,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1063,10 +1077,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1075,139 +1089,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1220,37 +1234,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1262,29 +1273,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -1610,7 +1618,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1652,13 +1660,13 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="17">
-        <v>1</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="A2" s="16">
+        <v>1</v>
+      </c>
+      <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="8">
+      <c r="C2" s="7">
         <v>1</v>
       </c>
       <c r="D2" s="1">
@@ -1671,19 +1679,19 @@
         <v>1</v>
       </c>
       <c r="G2" s="3"/>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="19"/>
+      <c r="J2" s="18"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="20">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
+      <c r="A3" s="19">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>1</v>
       </c>
       <c r="D3" s="1">
@@ -1698,19 +1706,19 @@
       <c r="G3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="19"/>
+      <c r="J3" s="18"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="20">
+      <c r="A4" s="19">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="1">
@@ -1725,19 +1733,19 @@
       <c r="G4" s="1">
         <v>2</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="19"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="20">
+      <c r="A5" s="19">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
       <c r="D5" s="1">
@@ -1752,19 +1760,19 @@
       <c r="G5" s="1">
         <v>3</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="19"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="17">
+      <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>2</v>
       </c>
       <c r="D6" s="1">
@@ -1779,19 +1787,19 @@
       <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="19" t="s">
+      <c r="H6" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="J6" s="19"/>
+      <c r="J6" s="18"/>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="20">
+      <c r="A7" s="19">
         <v>6</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>3</v>
       </c>
       <c r="D7" s="1">
@@ -1806,19 +1814,19 @@
       <c r="G7" s="1">
         <v>1</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="J7" s="19"/>
+      <c r="J7" s="18"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="17">
+      <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>3</v>
       </c>
       <c r="D8" s="1">
@@ -1833,187 +1841,187 @@
       <c r="G8" s="1">
         <v>1</v>
       </c>
-      <c r="H8" s="19" t="s">
+      <c r="H8" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="19"/>
-    </row>
-    <row r="9" s="13" customFormat="1" spans="1:10">
-      <c r="A9" s="15">
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" s="12" customFormat="1" spans="1:10">
+      <c r="A9" s="14">
         <v>8</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="24">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15">
+      <c r="C9" s="23">
+        <v>1</v>
+      </c>
+      <c r="D9" s="14">
         <v>8</v>
       </c>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="15">
-        <v>1</v>
-      </c>
-      <c r="G9" s="15">
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>1</v>
+      </c>
+      <c r="G9" s="14">
         <v>5</v>
       </c>
-      <c r="H9" s="24"/>
-      <c r="J9" s="24"/>
-    </row>
-    <row r="10" s="13" customFormat="1" spans="1:10">
-      <c r="A10" s="16">
+      <c r="H9" s="23"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" s="12" customFormat="1" spans="1:10">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="24">
-        <v>2</v>
-      </c>
-      <c r="D10" s="15">
+      <c r="C10" s="23">
+        <v>2</v>
+      </c>
+      <c r="D10" s="14">
         <v>9</v>
       </c>
-      <c r="E10" s="15">
-        <v>1</v>
-      </c>
-      <c r="F10" s="15">
-        <v>1</v>
-      </c>
-      <c r="G10" s="15">
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
         <v>6</v>
       </c>
-      <c r="H10" s="24"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="24"/>
-    </row>
-    <row r="11" s="13" customFormat="1" spans="1:10">
-      <c r="A11" s="15">
+      <c r="H10" s="23"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" s="12" customFormat="1" spans="1:10">
+      <c r="A11" s="14">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="24">
-        <v>2</v>
-      </c>
-      <c r="D11" s="15">
+      <c r="C11" s="23">
+        <v>2</v>
+      </c>
+      <c r="D11" s="14">
         <v>10</v>
       </c>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="15">
-        <v>1</v>
-      </c>
-      <c r="G11" s="15">
+      <c r="E11" s="14">
+        <v>1</v>
+      </c>
+      <c r="F11" s="14">
+        <v>1</v>
+      </c>
+      <c r="G11" s="14">
         <v>7</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="24"/>
-    </row>
-    <row r="12" s="13" customFormat="1" spans="1:10">
-      <c r="A12" s="16">
+      <c r="H11" s="23"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" s="12" customFormat="1" spans="1:10">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C12" s="24">
-        <v>2</v>
-      </c>
-      <c r="D12" s="15">
+      <c r="C12" s="23">
+        <v>2</v>
+      </c>
+      <c r="D12" s="14">
         <v>11</v>
       </c>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="15">
-        <v>1</v>
-      </c>
-      <c r="G12" s="15">
+      <c r="E12" s="14">
+        <v>1</v>
+      </c>
+      <c r="F12" s="14">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
         <v>8</v>
       </c>
-      <c r="H12" s="24"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="24"/>
-    </row>
-    <row r="13" s="13" customFormat="1" spans="1:9">
-      <c r="A13" s="15">
+      <c r="H12" s="23"/>
+      <c r="I12" s="14"/>
+      <c r="J12" s="23"/>
+    </row>
+    <row r="13" s="12" customFormat="1" spans="1:9">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="C13" s="24">
+      <c r="C13" s="23">
         <v>3</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <v>12</v>
       </c>
-      <c r="E13" s="15">
-        <v>1</v>
-      </c>
-      <c r="F13" s="15">
-        <v>1</v>
-      </c>
-      <c r="G13" s="15">
+      <c r="E13" s="14">
+        <v>1</v>
+      </c>
+      <c r="F13" s="14">
+        <v>1</v>
+      </c>
+      <c r="G13" s="14">
         <v>9</v>
       </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="25"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="6">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="B14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="1">
         <v>3</v>
       </c>
-      <c r="D14" s="6">
-        <v>16</v>
-      </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
+      <c r="D14" s="1">
+        <v>13</v>
+      </c>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
         <v>10</v>
       </c>
-      <c r="H14" s="6" t="s">
+      <c r="H14" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="1"/>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2031,7 +2039,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection/>
-      <selection pane="topRight" activeCell="E24" sqref="E24"/>
+      <selection pane="topRight" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2095,13 +2103,13 @@
       <c r="D2" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G2" s="14" t="s">
+      <c r="G2" s="13" t="s">
         <v>41</v>
       </c>
       <c r="H2">
@@ -2127,14 +2135,14 @@
       <c r="D3" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>41</v>
+      <c r="G3" s="13" t="s">
+        <v>43</v>
       </c>
       <c r="H3">
         <v>15</v>
@@ -2157,16 +2165,16 @@
         <v>1</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G4" s="14" t="s">
-        <v>41</v>
+      <c r="G4" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="H4">
         <v>15</v>
@@ -2189,16 +2197,16 @@
         <v>1</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="14" t="s">
-        <v>41</v>
+      <c r="G5" s="13" t="s">
+        <v>47</v>
       </c>
       <c r="H5">
         <v>15</v>
@@ -2221,16 +2229,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H6">
         <v>15</v>
@@ -2258,16 +2266,16 @@
         <v>3</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H7">
         <v>15</v>
@@ -2295,16 +2303,16 @@
         <v>4</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H8">
         <v>15</v>
@@ -2327,16 +2335,16 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="H9">
         <v>15</v>
@@ -2359,16 +2367,16 @@
         <v>6</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H10">
         <v>15</v>
@@ -2391,16 +2399,16 @@
         <v>7</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="H11">
         <v>15</v>
@@ -2412,187 +2420,187 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" s="13" customFormat="1" spans="1:10">
-      <c r="A12" s="15">
+    <row r="12" s="12" customFormat="1" spans="1:10">
+      <c r="A12" s="14">
         <v>11</v>
       </c>
-      <c r="B12" s="15">
+      <c r="B12" s="14">
         <v>11</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <v>8</v>
       </c>
-      <c r="D12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G12" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="13">
+      <c r="D12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" s="12">
         <v>15</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="15">
         <v>0.18</v>
       </c>
-      <c r="J12" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" s="13" customFormat="1" spans="1:10">
-      <c r="A13" s="15">
+      <c r="J12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" s="12" customFormat="1" spans="1:10">
+      <c r="A13" s="14">
         <v>12</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="14">
         <v>12</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <v>9</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="H13" s="13">
+      <c r="D13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" s="12">
         <v>15</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="15">
         <v>0.18</v>
       </c>
-      <c r="J13" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" s="13" customFormat="1" spans="1:10">
-      <c r="A14" s="15">
+      <c r="J13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" s="12" customFormat="1" spans="1:10">
+      <c r="A14" s="14">
         <v>13</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="14">
         <v>13</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="G14" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="13">
+      <c r="D14" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" s="12">
         <v>15</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>0.18</v>
       </c>
-      <c r="J14" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" s="13" customFormat="1" spans="1:10">
-      <c r="A15" s="15">
+      <c r="J14" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" s="12" customFormat="1" spans="1:10">
+      <c r="A15" s="14">
         <v>14</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="14">
         <v>14</v>
       </c>
-      <c r="C15" s="15">
+      <c r="C15" s="14">
         <v>11</v>
       </c>
-      <c r="D15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>70</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="H15" s="13">
+      <c r="D15" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="H15" s="12">
         <v>15</v>
       </c>
-      <c r="I15" s="16">
+      <c r="I15" s="15">
         <v>0.18</v>
       </c>
-      <c r="J15" s="15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" s="13" customFormat="1" spans="1:10">
-      <c r="A16" s="15">
+      <c r="J15" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" s="12" customFormat="1" spans="1:10">
+      <c r="A16" s="14">
         <v>15</v>
       </c>
-      <c r="B16" s="15">
+      <c r="B16" s="14">
         <v>15</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="14">
         <v>12</v>
       </c>
-      <c r="D16" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E16" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="D16" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="12">
         <v>15</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="15">
         <v>0.18</v>
       </c>
-      <c r="J16" s="15">
+      <c r="J16" s="14">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="6">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="1">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="1">
         <v>13</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E17" s="14" t="s">
-        <v>73</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="G17" s="14" t="s">
-        <v>75</v>
+        <v>48</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>84</v>
       </c>
       <c r="H17">
         <v>15</v>
@@ -2616,7 +2624,7 @@
   <sheetPr/>
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
@@ -2640,16 +2648,16 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -2669,7 +2677,7 @@
       <c r="E2" s="4">
         <v>0.006</v>
       </c>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1">
@@ -2688,7 +2696,7 @@
       <c r="E3" s="4">
         <v>0.006</v>
       </c>
-      <c r="F3" s="10"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1">
@@ -2707,7 +2715,7 @@
       <c r="E4" s="4">
         <v>0.006</v>
       </c>
-      <c r="F4" s="10"/>
+      <c r="F4" s="9"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="1">
@@ -2726,7 +2734,7 @@
       <c r="E5" s="4">
         <v>0.006</v>
       </c>
-      <c r="F5" s="10"/>
+      <c r="F5" s="9"/>
       <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
@@ -2746,7 +2754,7 @@
       <c r="E6" s="4">
         <v>0.006</v>
       </c>
-      <c r="F6" s="10"/>
+      <c r="F6" s="9"/>
       <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
@@ -2766,7 +2774,7 @@
       <c r="E7" s="4">
         <v>0.006</v>
       </c>
-      <c r="F7" s="10"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
@@ -2786,7 +2794,7 @@
       <c r="E8" s="4">
         <v>0.006</v>
       </c>
-      <c r="F8" s="10"/>
+      <c r="F8" s="9"/>
       <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
@@ -2806,7 +2814,7 @@
       <c r="E9" s="4">
         <v>0.006</v>
       </c>
-      <c r="F9" s="10"/>
+      <c r="F9" s="9"/>
       <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
@@ -2826,7 +2834,7 @@
       <c r="E10" s="4">
         <v>0.006</v>
       </c>
-      <c r="F10" s="10"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
@@ -2846,7 +2854,7 @@
       <c r="E11" s="4">
         <v>0.006</v>
       </c>
-      <c r="F11" s="10"/>
+      <c r="F11" s="9"/>
       <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
@@ -2866,7 +2874,7 @@
       <c r="E12" s="4">
         <v>0.006</v>
       </c>
-      <c r="F12" s="10"/>
+      <c r="F12" s="9"/>
       <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
@@ -2886,7 +2894,7 @@
       <c r="E13" s="4">
         <v>0.006</v>
       </c>
-      <c r="F13" s="10"/>
+      <c r="F13" s="9"/>
       <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
@@ -2906,7 +2914,7 @@
       <c r="E14" s="4">
         <v>0.006</v>
       </c>
-      <c r="F14" s="10"/>
+      <c r="F14" s="9"/>
       <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
@@ -2926,7 +2934,7 @@
       <c r="E15" s="4">
         <v>0.006</v>
       </c>
-      <c r="F15" s="10"/>
+      <c r="F15" s="9"/>
       <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
@@ -2946,7 +2954,7 @@
       <c r="E16" s="4">
         <v>0.006</v>
       </c>
-      <c r="F16" s="10"/>
+      <c r="F16" s="9"/>
       <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
@@ -2966,7 +2974,7 @@
       <c r="E17" s="4">
         <v>0.006</v>
       </c>
-      <c r="F17" s="10"/>
+      <c r="F17" s="9"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
@@ -2986,7 +2994,7 @@
       <c r="E18" s="4">
         <v>0.006</v>
       </c>
-      <c r="F18" s="10"/>
+      <c r="F18" s="9"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
@@ -3006,7 +3014,7 @@
       <c r="E19" s="4">
         <v>0.006</v>
       </c>
-      <c r="F19" s="10"/>
+      <c r="F19" s="9"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
@@ -3026,7 +3034,7 @@
       <c r="E20" s="4">
         <v>0.006</v>
       </c>
-      <c r="F20" s="10"/>
+      <c r="F20" s="9"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
@@ -3046,7 +3054,7 @@
       <c r="E21" s="4">
         <v>0.006</v>
       </c>
-      <c r="F21" s="10"/>
+      <c r="F21" s="9"/>
       <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
@@ -3066,7 +3074,7 @@
       <c r="E22" s="4">
         <v>0.006</v>
       </c>
-      <c r="F22" s="10"/>
+      <c r="F22" s="9"/>
       <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
@@ -3086,7 +3094,7 @@
       <c r="E23" s="4">
         <v>0.006</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="9"/>
       <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
@@ -3106,7 +3114,7 @@
       <c r="E24" s="4">
         <v>0.006</v>
       </c>
-      <c r="F24" s="10"/>
+      <c r="F24" s="9"/>
       <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
@@ -3126,7 +3134,7 @@
       <c r="E25" s="4">
         <v>0.006</v>
       </c>
-      <c r="F25" s="10"/>
+      <c r="F25" s="9"/>
       <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
@@ -3146,7 +3154,7 @@
       <c r="E26" s="4">
         <v>0.006</v>
       </c>
-      <c r="F26" s="10"/>
+      <c r="F26" s="9"/>
       <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
@@ -3166,7 +3174,7 @@
       <c r="E27" s="4">
         <v>0.006</v>
       </c>
-      <c r="F27" s="10"/>
+      <c r="F27" s="9"/>
       <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
@@ -3186,7 +3194,7 @@
       <c r="E28" s="4">
         <v>0.006</v>
       </c>
-      <c r="F28" s="10"/>
+      <c r="F28" s="9"/>
       <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
@@ -3206,7 +3214,7 @@
       <c r="E29" s="4">
         <v>0.006</v>
       </c>
-      <c r="F29" s="10"/>
+      <c r="F29" s="9"/>
       <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
@@ -3226,7 +3234,7 @@
       <c r="E30" s="4">
         <v>0.006</v>
       </c>
-      <c r="F30" s="10"/>
+      <c r="F30" s="9"/>
       <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
@@ -3246,7 +3254,7 @@
       <c r="E31" s="4">
         <v>0.006</v>
       </c>
-      <c r="F31" s="10"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
@@ -3266,7 +3274,7 @@
       <c r="E32" s="4">
         <v>0.006</v>
       </c>
-      <c r="F32" s="10"/>
+      <c r="F32" s="9"/>
       <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
@@ -3286,7 +3294,7 @@
       <c r="E33" s="4">
         <v>0.006</v>
       </c>
-      <c r="F33" s="10"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
@@ -3306,7 +3314,7 @@
       <c r="E34" s="4">
         <v>0.006</v>
       </c>
-      <c r="F34" s="10"/>
+      <c r="F34" s="9"/>
       <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
@@ -3326,7 +3334,7 @@
       <c r="E35" s="4">
         <v>0.006</v>
       </c>
-      <c r="F35" s="10"/>
+      <c r="F35" s="9"/>
       <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
@@ -3346,7 +3354,7 @@
       <c r="E36" s="4">
         <v>0.006</v>
       </c>
-      <c r="F36" s="10"/>
+      <c r="F36" s="9"/>
       <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:6">
@@ -3366,7 +3374,7 @@
       <c r="E37" s="4">
         <v>0.006</v>
       </c>
-      <c r="F37" s="10"/>
+      <c r="F37" s="9"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="1">
@@ -3385,7 +3393,7 @@
       <c r="E38" s="4">
         <v>0.006</v>
       </c>
-      <c r="F38" s="10"/>
+      <c r="F38" s="9"/>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="1">
@@ -3404,7 +3412,7 @@
       <c r="E39" s="4">
         <v>0.006</v>
       </c>
-      <c r="F39" s="10"/>
+      <c r="F39" s="9"/>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="1">
@@ -3423,7 +3431,7 @@
       <c r="E40" s="4">
         <v>0.006</v>
       </c>
-      <c r="F40" s="10"/>
+      <c r="F40" s="9"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="1">
@@ -3442,7 +3450,7 @@
       <c r="E41" s="4">
         <v>0.006</v>
       </c>
-      <c r="F41" s="10"/>
+      <c r="F41" s="9"/>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="1">
@@ -3461,7 +3469,7 @@
       <c r="E42" s="4">
         <v>0.006</v>
       </c>
-      <c r="F42" s="10"/>
+      <c r="F42" s="9"/>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="1">
@@ -3480,7 +3488,7 @@
       <c r="E43" s="4">
         <v>0.006</v>
       </c>
-      <c r="F43" s="10"/>
+      <c r="F43" s="9"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="1">
@@ -3499,7 +3507,7 @@
       <c r="E44" s="4">
         <v>0.006</v>
       </c>
-      <c r="F44" s="10"/>
+      <c r="F44" s="9"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="1">
@@ -3518,7 +3526,7 @@
       <c r="E45" s="4">
         <v>0.006</v>
       </c>
-      <c r="F45" s="10"/>
+      <c r="F45" s="9"/>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
@@ -3537,7 +3545,7 @@
       <c r="E46" s="4">
         <v>0.006</v>
       </c>
-      <c r="F46" s="10"/>
+      <c r="F46" s="9"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="1">
@@ -3556,7 +3564,7 @@
       <c r="E47" s="4">
         <v>0.006</v>
       </c>
-      <c r="F47" s="10"/>
+      <c r="F47" s="9"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="1">
@@ -3575,7 +3583,7 @@
       <c r="E48" s="4">
         <v>0.006</v>
       </c>
-      <c r="F48" s="10"/>
+      <c r="F48" s="9"/>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="1">
@@ -3594,7 +3602,7 @@
       <c r="E49" s="4">
         <v>0.006</v>
       </c>
-      <c r="F49" s="10"/>
+      <c r="F49" s="9"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="1">
@@ -3613,7 +3621,7 @@
       <c r="E50" s="4">
         <v>0.006</v>
       </c>
-      <c r="F50" s="10"/>
+      <c r="F50" s="9"/>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="1">
@@ -3632,7 +3640,7 @@
       <c r="E51" s="4">
         <v>0.006</v>
       </c>
-      <c r="F51" s="10"/>
+      <c r="F51" s="9"/>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="1">
@@ -4560,34 +4568,34 @@
   <sheetData>
     <row r="1" ht="20.25" customHeight="1" spans="1:5">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>86</v>
+      <c r="B2" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -4595,63 +4603,63 @@
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>90</v>
+        <v>96</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>93</v>
+      <c r="B4" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>95</v>
+      <c r="C5" s="10"/>
+      <c r="D5" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>99</v>
+      <c r="B6" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -4686,16 +4694,16 @@
         <v>29</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -4734,7 +4742,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -4762,7 +4770,7 @@
         <v>5</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4801,7 +4809,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -4829,7 +4837,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -4857,7 +4865,7 @@
         <v>5</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4885,7 +4893,7 @@
         <v>5</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4913,14 +4921,14 @@
         <v>5</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="1">
         <v>10</v>
       </c>
       <c r="C18" s="1">
